--- a/teaching/traditional_assets/database/data/south_korea/south_korea_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,119 +590,125 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.05385</v>
+      </c>
+      <c r="E2">
+        <v>-0.06155</v>
+      </c>
       <c r="F2">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="G2">
-        <v>0.07444726376745604</v>
+        <v>0.03551234325122792</v>
       </c>
       <c r="H2">
-        <v>0.07444726376745604</v>
+        <v>0.03551234325122792</v>
       </c>
       <c r="I2">
-        <v>0.008199718138874422</v>
+        <v>0.0585286881122463</v>
       </c>
       <c r="J2">
-        <v>0.006329258607467706</v>
+        <v>0.04422550048259027</v>
       </c>
       <c r="K2">
-        <v>1379.3</v>
+        <v>1255.5</v>
       </c>
       <c r="L2">
-        <v>0.02532433434804481</v>
+        <v>0.02296695356303336</v>
       </c>
       <c r="M2">
-        <v>533.5889</v>
+        <v>495.2395</v>
       </c>
       <c r="N2">
-        <v>0.03320672487506768</v>
+        <v>0.03151340740175117</v>
       </c>
       <c r="O2">
-        <v>0.3868548539114043</v>
+        <v>0.3944559936280366</v>
       </c>
       <c r="P2">
-        <v>491.8889</v>
+        <v>479.5394999999999</v>
       </c>
       <c r="Q2">
-        <v>0.03061161761685761</v>
+        <v>0.03051437461820403</v>
       </c>
       <c r="R2">
-        <v>0.3566221271659538</v>
+        <v>0.3819510155316606</v>
       </c>
       <c r="S2">
-        <v>41.7</v>
+        <v>15.7</v>
       </c>
       <c r="T2">
-        <v>0.07815005147221017</v>
+        <v>0.03170183315345405</v>
       </c>
       <c r="U2">
-        <v>1.504</v>
+        <v>1.82</v>
       </c>
       <c r="V2">
-        <v>9.359811310186885e-05</v>
+        <v>0.0001158114436978212</v>
       </c>
       <c r="W2">
-        <v>0.05312605937333527</v>
+        <v>0.03877158761062589</v>
       </c>
       <c r="X2">
-        <v>0.08884274031663986</v>
+        <v>0.07599041620467631</v>
       </c>
       <c r="Y2">
-        <v>-0.03571668094330459</v>
+        <v>-0.03721882859405042</v>
       </c>
       <c r="Z2">
-        <v>0.913515079640789</v>
+        <v>0.9371957870413025</v>
       </c>
       <c r="AA2">
-        <v>0.01916133139530193</v>
+        <v>0.07255998954774698</v>
       </c>
       <c r="AB2">
-        <v>0.07260956049868424</v>
+        <v>0.05969261982967428</v>
       </c>
       <c r="AC2">
-        <v>-0.05080743371291792</v>
+        <v>0.01355557142778391</v>
       </c>
       <c r="AD2">
-        <v>14779.5</v>
+        <v>17123.6</v>
       </c>
       <c r="AE2">
-        <v>238.4953583947444</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15017.99535839474</v>
+        <v>17123.6</v>
       </c>
       <c r="AG2">
-        <v>15016.49135839474</v>
+        <v>17121.78</v>
       </c>
       <c r="AH2">
-        <v>0.4831004127410165</v>
+        <v>0.5214441453402683</v>
       </c>
       <c r="AI2">
-        <v>0.2338985823116629</v>
+        <v>0.2502429564548964</v>
       </c>
       <c r="AJ2">
-        <v>0.4830754035020424</v>
+        <v>0.5214176212306979</v>
       </c>
       <c r="AK2">
-        <v>0.2338806366324987</v>
+        <v>0.2502230143828201</v>
       </c>
       <c r="AL2">
-        <v>483.85</v>
+        <v>483.54</v>
       </c>
       <c r="AM2">
-        <v>483.85</v>
+        <v>483.54</v>
       </c>
       <c r="AN2">
-        <v>12.00706799902511</v>
+        <v>4.330374528993754</v>
       </c>
       <c r="AO2">
-        <v>0.7816472047122043</v>
+        <v>6.616825908921702</v>
       </c>
       <c r="AP2">
-        <v>12.19960302087476</v>
+        <v>4.329914270540931</v>
       </c>
       <c r="AQ2">
-        <v>0.7816472047122043</v>
+        <v>6.616825908921702</v>
       </c>
     </row>
     <row r="3">
@@ -721,44 +727,50 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0697</v>
+      </c>
+      <c r="E3">
+        <v>-0.0687</v>
+      </c>
       <c r="F3">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="G3">
-        <v>0.05793156249335402</v>
+        <v>0.07677954662749613</v>
       </c>
       <c r="H3">
-        <v>0.05793156249335402</v>
+        <v>0.07677954662749613</v>
       </c>
       <c r="I3">
-        <v>0.06360987643818719</v>
+        <v>0.0729485092699194</v>
       </c>
       <c r="J3">
-        <v>0.04452286964936052</v>
+        <v>0.05134175758207304</v>
       </c>
       <c r="K3">
-        <v>109.7</v>
+        <v>99.8</v>
       </c>
       <c r="L3">
-        <v>0.02333000148869654</v>
+        <v>0.01981023462622573</v>
       </c>
       <c r="M3">
-        <v>12.9397</v>
+        <v>31.0241</v>
       </c>
       <c r="N3">
-        <v>0.02399351010569257</v>
+        <v>0.06153133677112258</v>
       </c>
       <c r="O3">
-        <v>0.1179553327256153</v>
+        <v>0.3108627254509019</v>
       </c>
       <c r="P3">
-        <v>12.9397</v>
+        <v>31.0241</v>
       </c>
       <c r="Q3">
-        <v>0.02399351010569257</v>
+        <v>0.06153133677112258</v>
       </c>
       <c r="R3">
-        <v>0.1179553327256153</v>
+        <v>0.3108627254509019</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +785,67 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.05312605937333527</v>
+        <v>0.04901768172888016</v>
       </c>
       <c r="X3">
-        <v>0.09419872895742827</v>
+        <v>0.07886467302683596</v>
       </c>
       <c r="Y3">
-        <v>-0.041072669584093</v>
+        <v>-0.0298469912979558</v>
       </c>
       <c r="Z3">
-        <v>2.182257813750902</v>
+        <v>2.369839467343557</v>
       </c>
       <c r="AA3">
-        <v>0.09716038018292988</v>
+        <v>0.121671723440782</v>
       </c>
       <c r="AB3">
-        <v>0.07202888888499692</v>
+        <v>0.05974003113166211</v>
       </c>
       <c r="AC3">
-        <v>0.02513149129793296</v>
+        <v>0.06193169230911989</v>
       </c>
       <c r="AD3">
-        <v>250.3</v>
+        <v>259.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>250.3</v>
+        <v>259.9</v>
       </c>
       <c r="AG3">
-        <v>250.3</v>
+        <v>259.9</v>
       </c>
       <c r="AH3">
-        <v>0.3169959473150963</v>
+        <v>0.3401387252977359</v>
       </c>
       <c r="AI3">
-        <v>0.09993212760011179</v>
+        <v>0.1034222045364107</v>
       </c>
       <c r="AJ3">
-        <v>0.3169959473150963</v>
+        <v>0.3401387252977359</v>
       </c>
       <c r="AK3">
-        <v>0.09993212760011179</v>
+        <v>0.1034222045364107</v>
       </c>
       <c r="AL3">
-        <v>9.449999999999999</v>
+        <v>12</v>
       </c>
       <c r="AM3">
-        <v>9.449999999999999</v>
+        <v>12</v>
       </c>
       <c r="AN3">
-        <v>0.7930925221799746</v>
+        <v>0.6719234746639089</v>
       </c>
       <c r="AO3">
-        <v>31.65079365079366</v>
+        <v>30.625</v>
       </c>
       <c r="AP3">
-        <v>0.7930925221799746</v>
+        <v>0.6719234746639089</v>
       </c>
       <c r="AQ3">
-        <v>31.65079365079366</v>
+        <v>30.625</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orange Life Insurance, Ltd. (KOSE:A079440)</t>
+          <t>Mirae Asset Life Insurance Co., Ltd. (KOSE:A085620)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,50 +864,53 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="F4">
-        <v>-0.004010000000000001</v>
+      <c r="D4">
+        <v>-0.0352</v>
+      </c>
+      <c r="E4">
+        <v>0.05980000000000001</v>
       </c>
       <c r="G4">
-        <v>0.1015548433237094</v>
+        <v>0.04495806150978564</v>
       </c>
       <c r="H4">
-        <v>0.1015548433237094</v>
+        <v>0.04495806150978564</v>
       </c>
       <c r="I4">
-        <v>0.06558419198474293</v>
+        <v>0.08354147250698975</v>
       </c>
       <c r="J4">
-        <v>0.04936025086045557</v>
+        <v>0.06450983527906605</v>
       </c>
       <c r="K4">
-        <v>215</v>
+        <v>104.4</v>
       </c>
       <c r="L4">
-        <v>0.05694911662649325</v>
+        <v>0.03891891891891892</v>
       </c>
       <c r="M4">
-        <v>41.7</v>
+        <v>35.191</v>
       </c>
       <c r="N4">
-        <v>0.02127008416220352</v>
+        <v>0.07450984543722211</v>
       </c>
       <c r="O4">
-        <v>0.193953488372093</v>
+        <v>0.3370785440613027</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>19.491</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.04126826169807326</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.1866954022988506</v>
       </c>
       <c r="S4">
-        <v>41.7</v>
+        <v>15.7</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.4461367963399733</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -904,67 +919,67 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0654390503728504</v>
+        <v>0.05526148634342579</v>
       </c>
       <c r="X4">
-        <v>0.07483332007391914</v>
+        <v>0.07311615938251664</v>
       </c>
       <c r="Y4">
-        <v>-0.009394269701068741</v>
+        <v>-0.01785467303909085</v>
       </c>
       <c r="Z4">
-        <v>1.149079287779638</v>
+        <v>1.251401849975462</v>
       </c>
       <c r="AA4">
-        <v>0.05671884190335654</v>
+        <v>0.08072772720983555</v>
       </c>
       <c r="AB4">
-        <v>0.07483332007391914</v>
+        <v>0.05836362771223969</v>
       </c>
       <c r="AC4">
-        <v>-0.0181144781705626</v>
+        <v>0.02236409949759586</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>171.3</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>171.3</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>171.3</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.2661591050341827</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.07601508764144664</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.2661591050341827</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.07601508764144664</v>
       </c>
       <c r="AL4">
-        <v>1.39</v>
+        <v>8.44</v>
       </c>
       <c r="AM4">
-        <v>1.39</v>
+        <v>8.44</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.6290855673889093</v>
       </c>
       <c r="AO4">
-        <v>178.1294964028777</v>
+        <v>26.5521327014218</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.6290855673889093</v>
       </c>
       <c r="AQ4">
-        <v>178.1294964028777</v>
+        <v>26.5521327014218</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samsung Life Insurance Co., Ltd. (KOSE:A032830)</t>
+          <t>Hanwha Life Insurance Co., Ltd. (KOSE:A088350)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,44 +998,50 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.0925</v>
+      </c>
+      <c r="E5">
+        <v>-0.162</v>
+      </c>
       <c r="F5">
-        <v>0.05400000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="G5">
-        <v>0.1180370833985292</v>
+        <v>-0.01313980368357701</v>
       </c>
       <c r="H5">
-        <v>0.1180370833985292</v>
+        <v>-0.01313980368357701</v>
       </c>
       <c r="I5">
-        <v>0.04388988140827143</v>
+        <v>0.04288944736272204</v>
       </c>
       <c r="J5">
-        <v>0.03196975301723126</v>
+        <v>0.03348927654640431</v>
       </c>
       <c r="K5">
-        <v>762.9</v>
+        <v>196.1</v>
       </c>
       <c r="L5">
-        <v>0.02984274761383195</v>
+        <v>0.009876257195666736</v>
       </c>
       <c r="M5">
-        <v>396.916</v>
+        <v>19.5364</v>
       </c>
       <c r="N5">
-        <v>0.03429909610964207</v>
+        <v>0.01159499080064099</v>
       </c>
       <c r="O5">
-        <v>0.5202726438589592</v>
+        <v>0.09962468128505864</v>
       </c>
       <c r="P5">
-        <v>396.916</v>
+        <v>19.5364</v>
       </c>
       <c r="Q5">
-        <v>0.03429909610964207</v>
+        <v>0.01159499080064099</v>
       </c>
       <c r="R5">
-        <v>0.5202726438589592</v>
+        <v>0.09962468128505864</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,73 +1050,67 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001296209882304143</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02878520329620574</v>
+        <v>0.01988642125545077</v>
       </c>
       <c r="X5">
-        <v>0.1258016684220938</v>
+        <v>0.07014822234754778</v>
       </c>
       <c r="Y5">
-        <v>-0.09701646512588805</v>
+        <v>-0.05026180109209701</v>
       </c>
       <c r="Z5">
-        <v>0.5993581303231912</v>
+        <v>1.922772258052021</v>
       </c>
       <c r="AA5">
-        <v>0.01916133139530193</v>
+        <v>0.06439225188565841</v>
       </c>
       <c r="AB5">
-        <v>0.06996876510821985</v>
+        <v>0.05964520852768644</v>
       </c>
       <c r="AC5">
-        <v>-0.05080743371291792</v>
+        <v>0.004747043357971964</v>
       </c>
       <c r="AD5">
-        <v>13897.3</v>
+        <v>478.2</v>
       </c>
       <c r="AE5">
-        <v>238.4953583947444</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>14135.79535839474</v>
+        <v>478.2</v>
       </c>
       <c r="AG5">
-        <v>14134.29535839474</v>
+        <v>478.2</v>
       </c>
       <c r="AH5">
-        <v>0.5498598844961597</v>
+        <v>0.2210716101890805</v>
       </c>
       <c r="AI5">
-        <v>0.3108449139801768</v>
+        <v>0.03521717997437144</v>
       </c>
       <c r="AJ5">
-        <v>0.5498336183652134</v>
+        <v>0.2210716101890805</v>
       </c>
       <c r="AK5">
-        <v>0.31082218153949</v>
+        <v>0.03521717997437144</v>
       </c>
       <c r="AL5">
-        <v>466.1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>466.1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>8.725075339025615</v>
-      </c>
-      <c r="AO5">
-        <v>2.260459128942287</v>
+        <v>0.4355984696666059</v>
       </c>
       <c r="AP5">
-        <v>8.87386700049896</v>
-      </c>
-      <c r="AQ5">
-        <v>2.260459128942287</v>
+        <v>0.4355984696666059</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1121,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirae Asset Life Insurance Co., Ltd. (KOSE:A085620)</t>
+          <t>Samsung Life Insurance Co., Ltd. (KOSE:A032830)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1114,44 +1129,50 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.038</v>
+      </c>
+      <c r="E6">
+        <v>-0.0544</v>
+      </c>
       <c r="F6">
-        <v>0.008</v>
+        <v>0.105</v>
       </c>
       <c r="G6">
-        <v>0.06247614685901839</v>
+        <v>0.06256298565865002</v>
       </c>
       <c r="H6">
-        <v>0.06247614685901839</v>
+        <v>0.06256298565865002</v>
       </c>
       <c r="I6">
-        <v>0.008777955881230442</v>
+        <v>0.06483323797043135</v>
       </c>
       <c r="J6">
-        <v>0.006899802425065427</v>
+        <v>0.04964010141906125</v>
       </c>
       <c r="K6">
-        <v>121.6</v>
+        <v>855.2</v>
       </c>
       <c r="L6">
-        <v>0.04640867109380963</v>
+        <v>0.03156942726886802</v>
       </c>
       <c r="M6">
-        <v>19.667</v>
+        <v>409.4879999999999</v>
       </c>
       <c r="N6">
-        <v>0.03970724813244498</v>
+        <v>0.03136925646171996</v>
       </c>
       <c r="O6">
-        <v>0.161735197368421</v>
+        <v>0.4788213283442468</v>
       </c>
       <c r="P6">
-        <v>19.667</v>
+        <v>409.4879999999999</v>
       </c>
       <c r="Q6">
-        <v>0.03970724813244498</v>
+        <v>0.03136925646171996</v>
       </c>
       <c r="R6">
-        <v>0.161735197368421</v>
+        <v>0.4788213283442468</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1160,198 +1181,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004</v>
+        <v>1.82</v>
       </c>
       <c r="V6">
-        <v>8.075913587724611e-06</v>
+        <v>0.0001394230032634176</v>
       </c>
       <c r="W6">
-        <v>0.07286673058485139</v>
+        <v>0.02852549349237163</v>
       </c>
       <c r="X6">
-        <v>0.08884274031663986</v>
+        <v>0.106205695319566</v>
       </c>
       <c r="Y6">
-        <v>-0.01597600973178846</v>
+        <v>-0.07768020182719439</v>
       </c>
       <c r="Z6">
-        <v>1.39543429577221</v>
+        <v>0.6194320967328869</v>
       </c>
       <c r="AA6">
-        <v>0.009628220937988562</v>
+        <v>0.03074867210404227</v>
       </c>
       <c r="AB6">
-        <v>0.07260956049868424</v>
+        <v>0.05991033845548902</v>
       </c>
       <c r="AC6">
-        <v>-0.06298133956069568</v>
+        <v>-0.02916166635144675</v>
       </c>
       <c r="AD6">
-        <v>166.3</v>
+        <v>16214.2</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>166.3</v>
+        <v>16214.2</v>
       </c>
       <c r="AG6">
-        <v>166.296</v>
+        <v>16212.38</v>
       </c>
       <c r="AH6">
-        <v>0.251360338573156</v>
+        <v>0.5539907065737324</v>
       </c>
       <c r="AI6">
-        <v>0.07757977234558687</v>
+        <v>0.3237478735214485</v>
       </c>
       <c r="AJ6">
-        <v>0.2513558123084179</v>
+        <v>0.5539629702270676</v>
       </c>
       <c r="AK6">
-        <v>0.07757805108798488</v>
+        <v>0.3237232977469691</v>
       </c>
       <c r="AL6">
-        <v>6.91</v>
+        <v>463.1</v>
       </c>
       <c r="AM6">
-        <v>6.91</v>
+        <v>463.1</v>
       </c>
       <c r="AN6">
-        <v>2.202649006622517</v>
+        <v>7.378811322472012</v>
       </c>
       <c r="AO6">
-        <v>3.328509406657019</v>
+        <v>3.792485424314403</v>
       </c>
       <c r="AP6">
-        <v>2.202596026490066</v>
+        <v>7.377983070901975</v>
       </c>
       <c r="AQ6">
-        <v>3.328509406657019</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hanwha Life Insurance Co., Ltd. (KOSE:A088350)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>0.002</v>
-      </c>
-      <c r="G7">
-        <v>0.01223334344353453</v>
-      </c>
-      <c r="H7">
-        <v>0.01223334344353453</v>
-      </c>
-      <c r="I7">
-        <v>-0.06993450836338309</v>
-      </c>
-      <c r="J7">
-        <v>-0.06241167280238172</v>
-      </c>
-      <c r="K7">
-        <v>170.1</v>
-      </c>
-      <c r="L7">
-        <v>0.009554140127388535</v>
-      </c>
-      <c r="M7">
-        <v>62.3662</v>
-      </c>
-      <c r="N7">
-        <v>0.04153869721593179</v>
-      </c>
-      <c r="O7">
-        <v>0.3666443268665491</v>
-      </c>
-      <c r="P7">
-        <v>62.3662</v>
-      </c>
-      <c r="Q7">
-        <v>0.04153869721593179</v>
-      </c>
-      <c r="R7">
-        <v>0.3666443268665491</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0.01820497452801918</v>
-      </c>
-      <c r="X7">
-        <v>0.08777268025096228</v>
-      </c>
-      <c r="Y7">
-        <v>-0.0695677057229431</v>
-      </c>
-      <c r="Z7">
-        <v>1.844647519582245</v>
-      </c>
-      <c r="AA7">
-        <v>-0.1151275374278921</v>
-      </c>
-      <c r="AB7">
-        <v>0.07273920911206676</v>
-      </c>
-      <c r="AC7">
-        <v>-0.1878667465399589</v>
-      </c>
-      <c r="AD7">
-        <v>465.6</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>465.6</v>
-      </c>
-      <c r="AG7">
-        <v>465.6</v>
-      </c>
-      <c r="AH7">
-        <v>0.2367056431113371</v>
-      </c>
-      <c r="AI7">
-        <v>0.04101516045772074</v>
-      </c>
-      <c r="AJ7">
-        <v>0.2367056431113371</v>
-      </c>
-      <c r="AK7">
-        <v>0.04101516045772074</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>-0.4530505011190036</v>
-      </c>
-      <c r="AP7">
-        <v>-0.4530505011190036</v>
+        <v>3.792485424314403</v>
       </c>
     </row>
   </sheetData>
